--- a/Mars_Craters_WorkBook_Assignment_3.xlsx
+++ b/Mars_Craters_WorkBook_Assignment_3.xlsx
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61539</v>
+        <v>19383</v>
       </c>
       <c r="C4" t="n">
-        <v>80.43049999999999</v>
+        <v>25.3333</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>70381</v>
+        <v>8842</v>
       </c>
       <c r="C5" t="n">
-        <v>91.98690000000001</v>
+        <v>11.5564</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>73789</v>
+        <v>3408</v>
       </c>
       <c r="C6" t="n">
-        <v>96.44110000000001</v>
+        <v>4.4542</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>75294</v>
+        <v>1505</v>
       </c>
       <c r="C7" t="n">
-        <v>98.4081</v>
+        <v>1.967</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>75970</v>
+        <v>676</v>
       </c>
       <c r="C8" t="n">
-        <v>99.2916</v>
+        <v>0.8835</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>76322</v>
+        <v>352</v>
       </c>
       <c r="C9" t="n">
-        <v>99.7517</v>
+        <v>0.4601</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>76451</v>
+        <v>129</v>
       </c>
       <c r="C10" t="n">
-        <v>99.9203</v>
+        <v>0.1686</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>76497</v>
+        <v>46</v>
       </c>
       <c r="C11" t="n">
-        <v>99.9804</v>
+        <v>0.0601</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>76512</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>100</v>
+        <v>0.0196</v>
       </c>
     </row>
   </sheetData>
@@ -668,10 +668,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53390</v>
+        <v>20456</v>
       </c>
       <c r="C4" t="n">
-        <v>69.7799</v>
+        <v>26.7357</v>
       </c>
     </row>
     <row r="5">
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61617</v>
+        <v>8227</v>
       </c>
       <c r="C5" t="n">
-        <v>80.5325</v>
+        <v>10.7526</v>
       </c>
     </row>
     <row r="6">
@@ -694,10 +694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66240</v>
+        <v>4623</v>
       </c>
       <c r="C6" t="n">
-        <v>86.57470000000001</v>
+        <v>6.0422</v>
       </c>
     </row>
     <row r="7">
@@ -707,10 +707,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>69166</v>
+        <v>2926</v>
       </c>
       <c r="C7" t="n">
-        <v>90.3989</v>
+        <v>3.8242</v>
       </c>
     </row>
     <row r="8">
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>71158</v>
+        <v>1992</v>
       </c>
       <c r="C8" t="n">
-        <v>93.00239999999999</v>
+        <v>2.6035</v>
       </c>
     </row>
     <row r="9">
@@ -733,10 +733,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>72506</v>
+        <v>1348</v>
       </c>
       <c r="C9" t="n">
-        <v>94.7642</v>
+        <v>1.7618</v>
       </c>
     </row>
     <row r="10">
@@ -746,10 +746,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>73495</v>
+        <v>989</v>
       </c>
       <c r="C10" t="n">
-        <v>96.0568</v>
+        <v>1.2926</v>
       </c>
     </row>
     <row r="11">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>74259</v>
+        <v>764</v>
       </c>
       <c r="C11" t="n">
-        <v>97.05540000000001</v>
+        <v>0.9985000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -772,10 +772,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>74800</v>
+        <v>541</v>
       </c>
       <c r="C12" t="n">
-        <v>97.7624</v>
+        <v>0.7071</v>
       </c>
     </row>
     <row r="13">
@@ -785,10 +785,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>75230</v>
+        <v>430</v>
       </c>
       <c r="C13" t="n">
-        <v>98.3244</v>
+        <v>0.5620000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -798,10 +798,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>75530</v>
+        <v>300</v>
       </c>
       <c r="C14" t="n">
-        <v>98.7165</v>
+        <v>0.3921</v>
       </c>
     </row>
     <row r="15">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>75780</v>
+        <v>250</v>
       </c>
       <c r="C15" t="n">
-        <v>99.0433</v>
+        <v>0.3267</v>
       </c>
     </row>
     <row r="16">
@@ -824,10 +824,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>75981</v>
+        <v>201</v>
       </c>
       <c r="C16" t="n">
-        <v>99.306</v>
+        <v>0.2627</v>
       </c>
     </row>
     <row r="17">
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76108</v>
+        <v>127</v>
       </c>
       <c r="C17" t="n">
-        <v>99.47199999999999</v>
+        <v>0.166</v>
       </c>
     </row>
     <row r="18">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>76227</v>
+        <v>119</v>
       </c>
       <c r="C18" t="n">
-        <v>99.6275</v>
+        <v>0.1555</v>
       </c>
     </row>
     <row r="19">
@@ -863,10 +863,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>76319</v>
+        <v>92</v>
       </c>
       <c r="C19" t="n">
-        <v>99.7478</v>
+        <v>0.1202</v>
       </c>
     </row>
     <row r="20">
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76396</v>
+        <v>77</v>
       </c>
       <c r="C20" t="n">
-        <v>99.8484</v>
+        <v>0.1006</v>
       </c>
     </row>
     <row r="21">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>76466</v>
+        <v>70</v>
       </c>
       <c r="C21" t="n">
-        <v>99.93989999999999</v>
+        <v>0.0915</v>
       </c>
     </row>
     <row r="22">
@@ -902,10 +902,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>76512</v>
+        <v>46</v>
       </c>
       <c r="C22" t="n">
-        <v>100</v>
+        <v>0.0601</v>
       </c>
     </row>
   </sheetData>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5037</v>
+        <v>4463</v>
       </c>
       <c r="C4" t="n">
-        <v>6.5833</v>
+        <v>5.8331</v>
       </c>
     </row>
     <row r="5">
@@ -987,10 +987,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12534</v>
+        <v>7497</v>
       </c>
       <c r="C5" t="n">
-        <v>16.3817</v>
+        <v>9.798500000000001</v>
       </c>
     </row>
     <row r="6">
@@ -1000,10 +1000,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22827</v>
+        <v>10293</v>
       </c>
       <c r="C6" t="n">
-        <v>29.8345</v>
+        <v>13.4528</v>
       </c>
     </row>
     <row r="7">
@@ -1013,10 +1013,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35712</v>
+        <v>12885</v>
       </c>
       <c r="C7" t="n">
-        <v>46.675</v>
+        <v>16.8405</v>
       </c>
     </row>
     <row r="8">
@@ -1026,10 +1026,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>47975</v>
+        <v>12263</v>
       </c>
       <c r="C8" t="n">
-        <v>62.7026</v>
+        <v>16.0276</v>
       </c>
     </row>
     <row r="9">
@@ -1039,10 +1039,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>57486</v>
+        <v>9511</v>
       </c>
       <c r="C9" t="n">
-        <v>75.13330000000001</v>
+        <v>12.4307</v>
       </c>
     </row>
     <row r="10">
@@ -1052,10 +1052,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66655</v>
+        <v>9169</v>
       </c>
       <c r="C10" t="n">
-        <v>87.11709999999999</v>
+        <v>11.9837</v>
       </c>
     </row>
     <row r="11">
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>72223</v>
+        <v>5568</v>
       </c>
       <c r="C11" t="n">
-        <v>94.3943</v>
+        <v>7.2773</v>
       </c>
     </row>
     <row r="12">
@@ -1078,10 +1078,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>74591</v>
+        <v>2368</v>
       </c>
       <c r="C12" t="n">
-        <v>97.4893</v>
+        <v>3.0949</v>
       </c>
     </row>
     <row r="13">
@@ -1091,10 +1091,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>76244</v>
+        <v>1653</v>
       </c>
       <c r="C13" t="n">
-        <v>99.6497</v>
+        <v>2.1604</v>
       </c>
     </row>
     <row r="14">
@@ -1104,10 +1104,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>76512</v>
+        <v>268</v>
       </c>
       <c r="C14" t="n">
-        <v>100</v>
+        <v>0.3503</v>
       </c>
     </row>
   </sheetData>
